--- a/日常计划.xlsx
+++ b/日常计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17520"/>
+    <workbookView windowWidth="25600" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
-    <t>计划表</t>
-  </si>
-  <si>
-    <t>一天有24时，明确分配自己的任务。</t>
+    <t>计划表----以身作则，率先垂范，言传身教，行胜于言</t>
+  </si>
+  <si>
+    <t>古诗文</t>
   </si>
   <si>
     <t>时间</t>
@@ -46,42 +46,45 @@
     <t>星期日</t>
   </si>
   <si>
+    <t>围棋</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>06:00-06:20</t>
+  </si>
+  <si>
+    <t>起床洗漱时间</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>06:30-08:00</t>
+  </si>
+  <si>
+    <t>锻炼</t>
+  </si>
+  <si>
+    <t>休息日</t>
+  </si>
+  <si>
     <t>编程</t>
   </si>
   <si>
-    <t>古诗文</t>
+    <t>健身知识</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>吃饭</t>
   </si>
   <si>
     <t>练字</t>
   </si>
   <si>
-    <t>上午</t>
-  </si>
-  <si>
-    <t>06:00-06:20</t>
-  </si>
-  <si>
-    <t>起床洗漱时间</t>
-  </si>
-  <si>
-    <t>健身</t>
-  </si>
-  <si>
-    <t>围棋</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>06:30-08:30</t>
-  </si>
-  <si>
-    <t>锻炼</t>
-  </si>
-  <si>
-    <t>休息日</t>
-  </si>
-  <si>
     <t>08:30-10:00</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>10:00-12:00</t>
   </si>
   <si>
-    <t>总结笔记，开始工作</t>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>休息</t>
   </si>
   <si>
     <t>中午</t>
@@ -113,9 +119,6 @@
   </si>
   <si>
     <t>16:00-17:00</t>
-  </si>
-  <si>
-    <t>健身知识</t>
   </si>
   <si>
     <t>17:00-18:00</t>
@@ -144,9 +147,6 @@
   </si>
   <si>
     <t>回想一天内容，总结笔记，安排来日事宜</t>
-  </si>
-  <si>
-    <t>准备休息</t>
   </si>
   <si>
     <t>22:30-06:00</t>
@@ -211,6 +211,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,6 +226,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +255,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,22 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -265,53 +326,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,28 +353,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -393,79 +393,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,68 +565,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -644,26 +644,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -680,23 +660,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -711,6 +687,50 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,17 +739,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -754,7 +763,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,6 +798,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -803,138 +823,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,26 +954,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -990,9 +1001,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,6 +1013,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1014,82 +1028,49 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1414,10 +1395,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:G14"/>
+      <selection activeCell="C14" sqref="C14:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1440,11 +1421,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="40" customHeight="1" spans="1:13">
       <c r="A2" s="4"/>
@@ -1472,414 +1453,419 @@
       <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="39"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:13">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="J4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10" t="s">
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="9"/>
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:13">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="24" t="s">
+      <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:13">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="28"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:13">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="28"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:13">
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="41"/>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:13">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="41"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:13">
-      <c r="A9" s="5" t="s">
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:13">
+      <c r="A15" s="5"/>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:13">
+      <c r="A16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="41"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="9"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="41"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="41"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="9"/>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="9"/>
-      <c r="B14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="9"/>
-      <c r="B15" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:13">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" spans="1:13">
+      <c r="A17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:13">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="D17" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:13">
-      <c r="A18" s="9"/>
-      <c r="B18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:13">
+      <c r="A19" s="5"/>
+      <c r="B19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="24" t="s">
+      <c r="C19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:13">
-      <c r="A19" s="9"/>
-      <c r="B19" s="14" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" ht="30" customHeight="1" spans="1:13">
+      <c r="A20" s="5"/>
+      <c r="B20" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="37">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C9:I10"/>
-    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I4:I19"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="C14:G15"/>
+    <mergeCell ref="C10:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/日常计划.xlsx
+++ b/日常计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12460"/>
+    <workbookView windowWidth="25600" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
-  <si>
-    <t>计划表----以身作则，率先垂范，言传身教，行胜于言</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+  <si>
+    <t>计划表----就当是在上学</t>
   </si>
   <si>
     <t>古诗文</t>
@@ -52,9 +52,6 @@
     <t>上午</t>
   </si>
   <si>
-    <t>06:00-06:20</t>
-  </si>
-  <si>
     <t>起床洗漱时间</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>工作</t>
-  </si>
-  <si>
-    <t>休息</t>
   </si>
   <si>
     <t>中午</t>
@@ -160,9 +154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -210,10 +204,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,8 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,11 +243,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +262,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,19 +281,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,16 +312,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,36 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -387,181 +381,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,6 +674,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -715,22 +720,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +749,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,45 +800,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -809,17 +809,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,148 +822,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1046,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,10 +1061,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1397,8 +1391,8 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1462,11 +1456,9 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1475,26 +1467,26 @@
       <c r="H3" s="8"/>
       <c r="I3" s="31"/>
       <c r="J3" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="29"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" s="5"/>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>10</v>
@@ -1503,10 +1495,10 @@
         <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="29" t="s">
         <v>17</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>18</v>
       </c>
       <c r="M4" s="29"/>
     </row>
@@ -1518,10 +1510,10 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="28"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -1530,21 +1522,19 @@
     <row r="6" ht="30" customHeight="1" spans="1:13">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29" t="s">
-        <v>22</v>
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
@@ -1553,19 +1543,17 @@
     <row r="7" ht="30" customHeight="1" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -1574,19 +1562,17 @@
     <row r="8" ht="30" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:13">
@@ -1596,29 +1582,27 @@
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="28"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
       <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
@@ -1629,16 +1613,16 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="M11" s="29"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>1</v>
@@ -1647,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>1</v>
@@ -1655,26 +1639,22 @@
       <c r="G12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="M12" s="29"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
@@ -1683,19 +1663,17 @@
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
@@ -1704,15 +1682,15 @@
     <row r="15" ht="30" customHeight="1" spans="1:13">
       <c r="A15" s="5"/>
       <c r="B15" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -1721,27 +1699,25 @@
     <row r="16" ht="30" customHeight="1" spans="1:13">
       <c r="A16" s="5"/>
       <c r="B16" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="29"/>
@@ -1749,26 +1725,26 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
       <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -1782,8 +1758,8 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="29"/>
@@ -1792,15 +1768,15 @@
     <row r="19" ht="30" customHeight="1" spans="1:13">
       <c r="A19" s="5"/>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="26"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="29"/>
@@ -1811,10 +1787,10 @@
     <row r="20" ht="30" customHeight="1" spans="1:13">
       <c r="A20" s="5"/>
       <c r="B20" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -1828,7 +1804,7 @@
       <c r="M20" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="35">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C6:G6"/>
@@ -1859,13 +1835,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H4:H19"/>
     <mergeCell ref="I4:I19"/>
     <mergeCell ref="C8:G9"/>
     <mergeCell ref="C14:G15"/>
-    <mergeCell ref="C10:H11"/>
+    <mergeCell ref="C10:G11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
